--- a/Hardware/Build Package/Assembly/918B_BOM.xlsx
+++ b/Hardware/Build Package/Assembly/918B_BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlyon\Dropbox\Projects\918B\Hardware\Build Package\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{44E824AC-D4E6-4A22-B70F-B7A16D9AD8E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A77F47-D36A-46C0-939E-E4E407491061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="918B_BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Qty</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>D1</t>
-  </si>
-  <si>
-    <t>PMEG4030EP</t>
   </si>
   <si>
     <t>10uF</t>
@@ -151,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1006,11 +1003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,10 +1021,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1035,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1047,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1076,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -1091,16 +1088,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1109,16 +1106,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1127,16 +1124,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -1145,16 +1142,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -1163,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -1181,16 +1178,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -1199,16 +1196,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -1217,16 +1214,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="F14" s="2"/>
     </row>
